--- a/Instances/Vehicles.xlsx
+++ b/Instances/Vehicles.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{BDAA8872-7A04-414F-B2EF-941768FC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C3548D-2EC4-459E-BB79-704D167CB4C6}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{BDAA8872-7A04-414F-B2EF-941768FC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD2A83A4-B5E8-4C76-A9D0-98BC6AFA106A}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -463,10 +476,10 @@
     <t>Ap</t>
   </si>
   <si>
-    <t>ccap</t>
-  </si>
-  <si>
-    <t>cmax</t>
+    <t>maxcap</t>
+  </si>
+  <si>
+    <t>curcap</t>
   </si>
 </sst>
 </file>
@@ -850,7 +863,7 @@
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U101" sqref="U101"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -860,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
